--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vivake\Desktop\TestData Automation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC13C4F-DF6C-45C1-886B-E2FAD22DD407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{65D59CD4-9746-44BD-A12E-051EF098FECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6050" yWindow="1770" windowWidth="10390" windowHeight="7300" xr2:uid="{49726B29-A29B-4585-8DE1-2D74F1E03405}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{49726B29-A29B-4585-8DE1-2D74F1E03405}"/>
   </bookViews>
   <sheets>
     <sheet name="eSign" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>1st Singnatory name</t>
   </si>
@@ -60,6 +56,12 @@
   </si>
   <si>
     <t>7992303112</t>
+  </si>
+  <si>
+    <t>atul</t>
+  </si>
+  <si>
+    <t>atul@doqfy.in</t>
   </si>
 </sst>
 </file>
@@ -106,7 +108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B00ED51-B668-4459-8F5D-67146CFA366C}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -477,11 +479,22 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>7992345661</v>
       </c>
     </row>
   </sheetData>
@@ -678,20 +691,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a62b0477-22dd-44ef-a23e-d316cf0895bd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a62b0477-22dd-44ef-a23e-d316cf0895bd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -713,14 +726,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABB950F4-F683-4BDE-AD9A-6F8FDBAFB34E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF820180-375F-41E9-9ED5-2C251AE67C51}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="a62b0477-22dd-44ef-a23e-d316cf0895bd"/>
@@ -734,4 +739,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABB950F4-F683-4BDE-AD9A-6F8FDBAFB34E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>